--- a/biology/Histoire de la zoologie et de la botanique/Raymond_Robert_Forster/Raymond_Robert_Forster.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Raymond_Robert_Forster/Raymond_Robert_Forster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Raymond Robert Forster, souvent abrégé en Ray Forster est un zoologiste néo-zélandais, né le 19 juin 1922 à Hastings en Nouvelle-Zélande et mort le 30 juin 2000 à Dunedin.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À 18 ans et après la publication de son premier article scientifique, il devient assistant-entomologiste au Dominion Museum de Wellington.  Il participe à de très nombreuses expéditions scientifiques.
 En 1947, il obtient son Bachelor of Sciences à l’université Victoria, l’année suivante, il obtient son Master of Sciences. Il s’installe alors à Christchurch et devient le directeur du Canterbury Museum. Après avoir obtenu son Doctorat of Sciences en 1953, il part à Dunedin où il prend la direction de l’Otago Museum (en), fonction qu’il conserve trente ans.
